--- a/biology/Botanique/Matthieu_Poux/Matthieu_Poux.xlsx
+++ b/biology/Botanique/Matthieu_Poux/Matthieu_Poux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Matthieu Poux né à Genève en 1970, est un archéologue, romancier, professeur d'archéologie à l'université Lyon II, ancien directeur et membre du laboratoire ArAr-UMR 5138[1] à la Maison de l'Orient et de la Méditerranée.
+Matthieu Poux né à Genève en 1970, est un archéologue, romancier, professeur d'archéologie à l'université Lyon II, ancien directeur et membre du laboratoire ArAr-UMR 5138 à la Maison de l'Orient et de la Méditerranée.
 </t>
         </is>
       </c>
@@ -512,13 +524,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Spécialiste des processus de romanisation en Gaule pré-romaine et romaine (commerce et consommation du vin, pratiques religieuses, urbanisation, conquête militaire, occupation du territoire, pratiques institutionnelles), il anime plusieurs chantiers archéologiques situés dans la région Auvergne-Rhône-Alpes. Il coordonne, depuis 2001, les fouilles de l'oppidum de Corent dans le Puy-de-Dôme, et de 2008 à 2011, les fouilles de la villa de Saint-Laurent-d'Agny dans le Rhône. Depuis 2012, il dirige les fouilles sur le site des Buissières à Panossas en Isère en collaboration avec Aldo Borlenghi.
-Lauréat du Prix La Recherche 2012, attribué à l'ensemble de l'équipe de fouilles de Corent[2], pour la découverte sur ce site, d'un hémicycle laténien, probable lieu de réunion politique de l'élite arverne aux IIe et Ier siècles av. J.-C..
-Auteur d'une centaine de publications - dont une dizaine d'ouvrages - et d'une vingtaine de rapports de fouille pour la plupart consultables en ligne[3].
-Ses recherches font l'objet, depuis 2003, de nombreux articles dans la presse nationale et internationale[4].
-En décembre 2013, il prend position dans une tribune du Monde des Sciences[5] en faveur d'un maintien des lois en vigueur et de la diversité des acteurs de l'archéologie préventive.
+Lauréat du Prix La Recherche 2012, attribué à l'ensemble de l'équipe de fouilles de Corent, pour la découverte sur ce site, d'un hémicycle laténien, probable lieu de réunion politique de l'élite arverne aux IIe et Ier siècles av. J.-C..
+Auteur d'une centaine de publications - dont une dizaine d'ouvrages - et d'une vingtaine de rapports de fouille pour la plupart consultables en ligne.
+Ses recherches font l'objet, depuis 2003, de nombreux articles dans la presse nationale et internationale.
+En décembre 2013, il prend position dans une tribune du Monde des Sciences en faveur d'un maintien des lois en vigueur et de la diversité des acteurs de l'archéologie préventive.
 Fondateur et vice-président du Laboratoire universitaire d'enseignement et de recherche en archéologie nationale (LUERN), qui supporte notamment l'organisation logistique, financière et administrative des fouilles de Corent.
 En 2019, Il publie un premier roman intitulé Gaule-Orient-Express - Péplum spaghetti, premier d'une trilogie de romans historiques ayant pour cadre la Gaule romaine à l'époque de l'empereur Auguste.
 </t>
@@ -549,7 +563,9 @@
           <t>Principaux ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(dir., avec François Bérard), Lugdunum et ses campagnes. Actualité de la recherche. Archéologie et Histoire Romaine 38, Editions Mergoil, Montagnac 2018.
 (dir., avec M. Demierre), Le sanctuaire de Corent (Puy- de-Dôme, Auvergne). Vestiges et rituels, Gallia, suppl. 62, Paris, 2016.
@@ -592,7 +608,9 @@
           <t>Conférences et interviews en ligne</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>« Fin de la Protohistoire ou débuts de la Romanisation ? », Collège de France, 29 octobre 2009
 « Le théâtre gaulois de Corent », Universcience TV, 2 novembre 2011
